--- a/PCB/harp expander BOM_simplified.xlsx
+++ b/PCB/harp expander BOM_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CD1E2-FDD9-4222-9FC2-0D3555F31EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2CAEB3-F8A5-42BC-A25E-5DC4D7376EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
     <t>R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31</t>
   </si>
   <si>
-    <t>ASSEMBLY HOUSE</t>
-  </si>
-  <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>PCB COMPONENTS</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>

--- a/PCB/harp expander BOM_simplified.xlsx
+++ b/PCB/harp expander BOM_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2CAEB3-F8A5-42BC-A25E-5DC4D7376EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552F6AC-9215-43EE-B1DC-637E90BAB762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>OSC</t>
   </si>
   <si>
-    <t>DSC1001CI5-032.0000T</t>
-  </si>
-  <si>
     <t>PROG HEADER</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>PCB COMPONENTS</t>
+  </si>
+  <si>
+    <t>O 32,0-JT32C-A-K-3,3-LF</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,6 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,7 +1275,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,18 +1305,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1332,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,13 +1369,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,13 +1429,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1455,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,10 +1472,10 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,7 +1629,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1666,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1686,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,11 +1702,11 @@
       <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>69</v>
+      <c r="E22" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,19 +1714,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,19 +1734,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,19 +1754,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,19 +1774,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,19 +1794,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,16 +1834,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>90</v>
       </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,22 +1851,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1">
         <v>27</v>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1">
         <v>122</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1">
         <v>13</v>

--- a/PCB/harp expander BOM_simplified.xlsx
+++ b/PCB/harp expander BOM_simplified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\projects\harp-tech\harp_expander\harp expander v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552F6AC-9215-43EE-B1DC-637E90BAB762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F92CA2-5DF6-48DA-93EC-33E77F686AA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Qty</t>
   </si>
@@ -57,9 +57,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>R4, R5, R6, R7, R8, R48, R49, R50, R51, R52</t>
-  </si>
-  <si>
     <t>CRCW0603100RFKEAHP</t>
   </si>
   <si>
@@ -87,15 +84,6 @@
     <t>CRCW040210K0FKED</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>CRCW04021M00FKED</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -123,21 +111,9 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C10, C11, C23, C24, C33, C34, C37, C38</t>
-  </si>
-  <si>
     <t>C1608X6S1C475K080AC</t>
   </si>
   <si>
-    <t>A/3216-18W</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>TAJA475K016UNJ</t>
-  </si>
-  <si>
     <t>40R@100MHz</t>
   </si>
   <si>
@@ -159,9 +135,6 @@
     <t>04025A470JAT2A</t>
   </si>
   <si>
-    <t>569-0112-100</t>
-  </si>
-  <si>
     <t>LED0, LED1, LED2, LED3, LED4, LED5</t>
   </si>
   <si>
@@ -312,12 +285,6 @@
     <t>885012205084</t>
   </si>
   <si>
-    <t>HEADER_3x2</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>Number of unique parts</t>
   </si>
   <si>
@@ -339,15 +306,6 @@
     <t>IC7, IC8, IC9, IC10</t>
   </si>
   <si>
-    <t>C1, C3, C5, C7, C9, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C25, C26, C27, C28, C29, C30, C31, C32, C35, C36</t>
-  </si>
-  <si>
-    <t>R3, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R38, R43, R46, R47, R54, R55</t>
-  </si>
-  <si>
-    <t>R2, R53</t>
-  </si>
-  <si>
     <t>R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31</t>
   </si>
   <si>
@@ -358,6 +316,75 @@
   </si>
   <si>
     <t>O 32,0-JT32C-A-K-3,3-LF</t>
+  </si>
+  <si>
+    <t>Alternative: DSC1001CI5-032.0000T</t>
+  </si>
+  <si>
+    <t>C1, C3, C5, C7, C9, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C25, C26, C27, C28, C29, C30, C31, C32, C35, C36, C40</t>
+  </si>
+  <si>
+    <t>C10, C11, C23, C24, C33, C34, C37, C38, C52</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3, R9, R10, R11, R12, R13, R14, R15, R16, R17, R19, R38, R43, R46, R47, R53, R54, R55, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7, R8, R48, R49, R50, R51, R52, R69</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TT2D6</t>
+  </si>
+  <si>
+    <t>569-011X-X00_LED_ARRAY</t>
+  </si>
+  <si>
+    <t>MA03-2</t>
+  </si>
+  <si>
+    <t>SO14</t>
+  </si>
+  <si>
+    <t>240-0002-1</t>
+  </si>
+  <si>
+    <t>EEUFM1E101B</t>
+  </si>
+  <si>
+    <t>C0402C331J5GACTU</t>
+  </si>
+  <si>
+    <t>74HCT125D,653</t>
+  </si>
+  <si>
+    <t>100u 25V</t>
+  </si>
+  <si>
+    <t>330pF</t>
+  </si>
+  <si>
+    <t>RED_LEDs</t>
+  </si>
+  <si>
+    <t>74HCT125SO14</t>
+  </si>
+  <si>
+    <t>Number of unique SMD parts</t>
+  </si>
+  <si>
+    <t>Number of unique TH parts</t>
   </si>
 </sst>
 </file>
@@ -717,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -832,6 +859,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -889,7 +925,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,12 +934,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,9 +1320,10 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="4" max="4" width="130.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,97 +1343,94 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,489 +1438,532 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="F28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
       <c r="D30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="1">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="1">
-        <v>122</v>
+      <c r="E33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="1">
-        <v>13</v>
+      <c r="E34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
